--- a/Onderdelen en kosten.xlsx
+++ b/Onderdelen en kosten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Aantal</t>
   </si>
@@ -36,9 +36,6 @@
     <t>RFID-lezer</t>
   </si>
   <si>
-    <t>LED-display 9x32</t>
-  </si>
-  <si>
     <t>Luidspreker, waterproof</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>JLCPCB</t>
   </si>
   <si>
-    <t>LED-ring, 16 LEDs</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -87,10 +81,6 @@
     <t>Tinytronics</t>
   </si>
   <si>
-    <t>Shift register 74HC166
-of data selector SN74HC151</t>
-  </si>
-  <si>
     <t>Zelfgemaakte printplaat?</t>
   </si>
   <si>
@@ -103,9 +93,6 @@
     <t>Houtconstructie [m]</t>
   </si>
   <si>
-    <t>Geschuimd PVC, 10 mm [m2]</t>
-  </si>
-  <si>
     <t>Zwartopwit</t>
   </si>
   <si>
@@ -116,10 +103,35 @@
   </si>
   <si>
     <t>Walth?</t>
+  </si>
+  <si>
+    <t>Polycarbonaat, 3 mm [m2]</t>
+  </si>
+  <si>
+    <t>Kunststofplaten</t>
+  </si>
+  <si>
+    <t>Omvormer 12V&gt;5V, 50A?</t>
   </si>
   <si>
     <t>Zonnepaneel 18 V, 30 W
 + controller 12 V, 10 A?</t>
+  </si>
+  <si>
+    <t>Geschuimd PVC?, 10 mm [m2]</t>
+  </si>
+  <si>
+    <t>LED-ring, 12 LEDs</t>
+  </si>
+  <si>
+    <t>LED-display 8x32</t>
+  </si>
+  <si>
+    <t>Volkern/Trespa</t>
+  </si>
+  <si>
+    <t>Shift register 74HC165, 74HC166
+of data selector SN74HC151</t>
   </si>
 </sst>
 </file>
@@ -496,17 +508,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -517,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -528,20 +540,20 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E16" si="0">A2*D2</f>
-        <v>96</v>
+        <f t="shared" ref="E2:E17" si="0">A2*D2</f>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -549,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>45</v>
@@ -567,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>14</v>
@@ -585,10 +597,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>40</v>
@@ -603,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>35</v>
@@ -621,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="3">
         <v>30</v>
@@ -636,36 +648,36 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
         <f>25/2</f>
         <v>12.5</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <v>25</v>
-      </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -676,17 +688,17 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -694,212 +706,266 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
         <f>2.5/10/25*30</f>
         <v>0.3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>7.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6">
+        <f>0.1*SUM(E2:E16)</f>
+        <v>41.300000000000004</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>41.300000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <f>SUM(E2:E17)</f>
+        <v>454.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1">
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="12">
+        <v>90</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" ref="E19:E24" si="1">A19*D19</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6">
-        <f>0.1*SUM(E2:E15)</f>
-        <v>37.9</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1">
-      <c r="B17" s="1" t="s">
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3">
+        <v>76</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="12">
+        <v>50</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1">
+      <c r="A24" s="7">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="12">
+        <f>0.1*SUM(E19:E23)</f>
+        <v>80.600000000000009</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="1"/>
+        <v>80.600000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="9" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <f>SUM(E2:E16)</f>
-        <v>416.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="11" customFormat="1">
-      <c r="A18" s="11">
-        <v>3</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="12">
-        <v>90</v>
-      </c>
-      <c r="E18" s="12">
-        <f>A18*D18</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3">
-        <f>A19*D19</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="11" customFormat="1">
-      <c r="A20" s="7">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="12">
-        <v>50</v>
-      </c>
-      <c r="E20" s="12">
-        <f>A20*D20</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="11" customFormat="1">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="12">
-        <f>0.1*SUM(E18:E20)</f>
-        <v>42</v>
-      </c>
-      <c r="E21" s="12">
-        <f>A21*D21</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10">
-        <f>SUM(E18:E21)</f>
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <f>E17+E22</f>
-        <v>878.9</v>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
+        <f>SUM(E19:E24)</f>
+        <v>886.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="15.75" thickTop="1">
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <f>E18+E25</f>
+        <v>1340.9</v>
       </c>
     </row>
   </sheetData>

--- a/Onderdelen en kosten.xlsx
+++ b/Onderdelen en kosten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13395" windowHeight="8265"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13392" windowHeight="8268"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Aantal</t>
   </si>
@@ -72,19 +72,7 @@
     <t>microSD, industr., SLC, 8 GB</t>
   </si>
   <si>
-    <t>DAC?</t>
-  </si>
-  <si>
-    <t>Controller, ESP32 audio kit</t>
-  </si>
-  <si>
     <t>Tinytronics</t>
-  </si>
-  <si>
-    <t>Zelfgemaakte printplaat?</t>
-  </si>
-  <si>
-    <t>Versterker? (klasse D)</t>
   </si>
   <si>
     <t>Totaal elektronica</t>
@@ -130,8 +118,70 @@
     <t>Volkern/Trespa</t>
   </si>
   <si>
-    <t>Shift register 74HC165, 74HC166
-of data selector SN74HC151</t>
+    <t>Betaald</t>
+  </si>
+  <si>
+    <t>MicroSD card expansion board</t>
+  </si>
+  <si>
+    <t>Shift register 74HC165 of 74HC166</t>
+  </si>
+  <si>
+    <t>Opmerking</t>
+  </si>
+  <si>
+    <t>Controller, ESP32, T-Display</t>
+  </si>
+  <si>
+    <t>Versterker (klasse D)</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Zelfgemaakte printplaat moederbord</t>
+  </si>
+  <si>
+    <t>Zelfgemaakte printplaat toetsmodule</t>
+  </si>
+  <si>
+    <t>40?</t>
+  </si>
+  <si>
+    <t>21?</t>
+  </si>
+  <si>
+    <t>0?</t>
+  </si>
+  <si>
+    <t>29.35+?</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>15.83+?</t>
+  </si>
+  <si>
+    <t>1?</t>
+  </si>
+  <si>
+    <t>De 5 reserve-onderdelen moeten nog besteld worden</t>
+  </si>
+  <si>
+    <t>33.46+?</t>
+  </si>
+  <si>
+    <t>Moet nog besteld worden</t>
+  </si>
+  <si>
+    <t>=19.46-9.73+20?</t>
+  </si>
+  <si>
+    <t>Begroot 10 nov</t>
+  </si>
+  <si>
+    <t>Werkelijk uitgegeven op 2021-11-27</t>
   </si>
 </sst>
 </file>
@@ -198,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -214,6 +264,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,20 +566,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,13 +598,22 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -552,16 +622,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E17" si="0">A2*D2</f>
+        <f t="shared" ref="E2:E19" si="0">A2*D2</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="16">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -573,13 +652,16 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -591,13 +673,19 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -609,52 +697,63 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="17">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <v>35</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>30</v>
@@ -663,309 +762,412 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <f>25/2</f>
         <v>12.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>25</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3">
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
         <v>15</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <f>2.5/10/25*30</f>
         <v>0.3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="F14" s="3">
+        <v>6.56</v>
+      </c>
+      <c r="G14" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>1</v>
-      </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16">
+      <c r="F16" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5.58</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6">
+        <f>0.1*SUM(E2:E18)</f>
+        <v>41.5</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <f>SUM(E2:E19)</f>
+        <v>456.5</v>
+      </c>
+      <c r="F20" s="2">
+        <f>SUM(F2:F19)</f>
+        <v>15.95</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="12">
+        <v>90</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" ref="E21:E26" si="1">A21*D21</f>
+        <v>180</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6">
-        <f>0.1*SUM(E2:E16)</f>
-        <v>41.300000000000004</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>41.300000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1">
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <f>SUM(E2:E17)</f>
-        <v>454.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="11" customFormat="1">
-      <c r="A19" s="11">
-        <v>2</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="12">
-        <v>90</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" ref="E19:E24" si="1">A19*D19</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+    <row r="23" spans="1:8">
+      <c r="A23">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3">
         <v>60</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3">
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3">
         <v>76</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="7" t="s">
+    <row r="25" spans="1:8" s="11" customFormat="1">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D25" s="12">
         <v>50</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E25" s="12">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="11" customFormat="1">
-      <c r="A24" s="7">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="12">
-        <f>0.1*SUM(E19:E23)</f>
+      <c r="D26" s="6">
+        <f>0.1*SUM(E21:E25)</f>
         <v>80.600000000000009</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E26" s="6">
         <f t="shared" si="1"/>
         <v>80.600000000000009</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
-        <f>SUM(E19:E24)</f>
+      <c r="F26" s="6"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1">
+      <c r="B27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
+        <f>SUM(E21:E26)</f>
         <v>886.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B26" s="8" t="s">
+      <c r="F27" s="10">
+        <f>SUM(F21:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="15" thickTop="1">
+      <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <f>E18+E25</f>
-        <v>1340.9</v>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2">
+        <f>E20+E27</f>
+        <v>1343.1</v>
+      </c>
+      <c r="F28" s="2">
+        <f>F20+F27</f>
+        <v>15.95</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +1185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -995,7 +1197,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Onderdelen en kosten.xlsx
+++ b/Onderdelen en kosten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13392" windowHeight="8268"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13395" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Aantal</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Kunststofplaten</t>
-  </si>
-  <si>
-    <t>Omvormer 12V&gt;5V, 50A?</t>
   </si>
   <si>
     <t>Zonnepaneel 18 V, 30 W
@@ -151,37 +148,64 @@
     <t>21?</t>
   </si>
   <si>
-    <t>0?</t>
-  </si>
-  <si>
-    <t>29.35+?</t>
-  </si>
-  <si>
     <t>Reserve</t>
   </si>
   <si>
-    <t>15.83+?</t>
-  </si>
-  <si>
-    <t>1?</t>
-  </si>
-  <si>
-    <t>De 5 reserve-onderdelen moeten nog besteld worden</t>
-  </si>
-  <si>
-    <t>33.46+?</t>
-  </si>
-  <si>
     <t>Moet nog besteld worden</t>
   </si>
   <si>
-    <t>=19.46-9.73+20?</t>
-  </si>
-  <si>
     <t>Begroot 10 nov</t>
   </si>
   <si>
-    <t>Werkelijk uitgegeven op 2021-11-27</t>
+    <t>Omvormer 12V&gt;5V, 20A</t>
+  </si>
+  <si>
+    <t>1? 2?</t>
+  </si>
+  <si>
+    <t>Werkelijk uitgegeven op 2021-11-30</t>
+  </si>
+  <si>
+    <t>Voor de toekomst?</t>
+  </si>
+  <si>
+    <t>We zullen er 4 of 5 gebruiken, dus 1 of 2 reserve</t>
+  </si>
+  <si>
+    <t>Gekocht</t>
+  </si>
+  <si>
+    <t>30?</t>
+  </si>
+  <si>
+    <t>5?</t>
+  </si>
+  <si>
+    <t>4?</t>
+  </si>
+  <si>
+    <t>Voeding 12 V, 100 W</t>
+  </si>
+  <si>
+    <t>2?</t>
+  </si>
+  <si>
+    <t>Staal i.p.v. Hout</t>
+  </si>
+  <si>
+    <t>400?</t>
+  </si>
+  <si>
+    <t>Geschuimd PVC i.p.v. Trespa</t>
+  </si>
+  <si>
+    <t>500?</t>
+  </si>
+  <si>
+    <t>18?</t>
+  </si>
+  <si>
+    <t>Moet nog besteld worden. In plaats van zonnepaneel/accu</t>
   </si>
 </sst>
 </file>
@@ -566,23 +590,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,22 +623,25 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="F1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -622,25 +650,26 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E19" si="0">A2*D2</f>
+        <f t="shared" ref="E2:E20" si="0">A2*D2</f>
         <v>100</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="F2" s="17">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3">
+        <f>29.35+7.46</f>
+        <v>36.81</v>
+      </c>
+      <c r="H2" s="16">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8">
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -652,16 +681,25 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -673,19 +711,26 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="17">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <f>33.46+33.14</f>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -697,34 +742,49 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="17">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1</v>
       </c>
@@ -741,11 +801,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1</v>
       </c>
@@ -762,412 +831,538 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
         <f>25/2</f>
         <v>12.5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F11" s="17">
+        <v>3</v>
+      </c>
+      <c r="G11" s="14">
+        <f>19.46-9.73+19.52</f>
+        <v>29.25</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
         <v>25</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="3">
+        <f>29.12+2.68+8.63</f>
+        <v>40.43</v>
+      </c>
+      <c r="H12" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F13" s="17">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <f>15.83+13.48</f>
+        <v>29.310000000000002</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="F14" s="17">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <f>2.5/10/25*30</f>
         <v>0.3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="17">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3">
         <v>6.56</v>
       </c>
-      <c r="G14" s="17">
+      <c r="H15" s="17">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>1</v>
-      </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3.81</v>
-      </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="F16" s="17">
+        <v>2</v>
+      </c>
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
+      <c r="G17" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>0.5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="17">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
         <v>5.58</v>
       </c>
-      <c r="G18" s="17">
+      <c r="H19" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1">
-      <c r="A19" s="5">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:9" s="5" customFormat="1">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6">
-        <f>0.1*SUM(E2:E18)</f>
+      <c r="D20" s="6">
+        <f>0.1*SUM(E2:E19)</f>
         <v>41.5</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1">
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <f>SUM(E2:E19)</f>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <f>SUM(E2:E20)</f>
         <v>456.5</v>
       </c>
-      <c r="F20" s="2">
-        <f>SUM(F2:F19)</f>
-        <v>15.95</v>
-      </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" s="11" customFormat="1">
-      <c r="A21" s="11">
+      <c r="F21" s="15"/>
+      <c r="G21" s="2">
+        <f>SUM(G2:G20)</f>
+        <v>252.83</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1">
+      <c r="A22" s="11">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <v>90</v>
       </c>
-      <c r="E21" s="12">
-        <f t="shared" ref="E21:E26" si="1">A21*D21</f>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:E27" si="1">A22*D22</f>
         <v>180</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
+      <c r="F22" s="19"/>
+      <c r="G22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
+      <c r="G23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>60</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>76</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1">
-      <c r="A25" s="7">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="26" spans="1:9" s="11" customFormat="1">
+      <c r="A26" s="7">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>50</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1">
-      <c r="A26" s="13">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="6">
-        <f>0.1*SUM(E21:E25)</f>
+      <c r="D27" s="6">
+        <f>0.1*SUM(E22:E26)</f>
         <v>80.600000000000009</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <f t="shared" si="1"/>
         <v>80.600000000000009</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1">
-      <c r="B27" s="9" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" s="9" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <f>SUM(E21:E26)</f>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10">
+        <f>SUM(E22:E27)</f>
         <v>886.6</v>
       </c>
-      <c r="F27" s="10">
-        <f>SUM(F21:F26)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="15" thickTop="1">
-      <c r="B28" s="8" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="10">
+        <f>SUM(G22:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="15.75" thickTop="1">
+      <c r="B29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="2">
-        <f>E20+E27</f>
+      <c r="D29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="2">
+        <f>E21+E28</f>
         <v>1343.1</v>
       </c>
-      <c r="F28" s="2">
-        <f>F20+F27</f>
-        <v>15.95</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="1" t="s">
-        <v>54</v>
+      <c r="F29" s="15"/>
+      <c r="G29" s="2">
+        <f>G21+G28</f>
+        <v>252.83</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1197,7 +1392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Onderdelen en kosten.xlsx
+++ b/Onderdelen en kosten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Aantal</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Totaal elektronica</t>
-  </si>
-  <si>
-    <t>Houtconstructie [m]</t>
   </si>
   <si>
     <t>Zwartopwit</t>
@@ -160,12 +157,6 @@
     <t>Omvormer 12V&gt;5V, 20A</t>
   </si>
   <si>
-    <t>1? 2?</t>
-  </si>
-  <si>
-    <t>Werkelijk uitgegeven op 2021-11-30</t>
-  </si>
-  <si>
     <t>Voor de toekomst?</t>
   </si>
   <si>
@@ -187,25 +178,34 @@
     <t>Voeding 12 V, 100 W</t>
   </si>
   <si>
-    <t>2?</t>
-  </si>
-  <si>
     <t>Staal i.p.v. Hout</t>
   </si>
   <si>
-    <t>400?</t>
-  </si>
-  <si>
     <t>Geschuimd PVC i.p.v. Trespa</t>
   </si>
   <si>
     <t>500?</t>
   </si>
   <si>
-    <t>18?</t>
-  </si>
-  <si>
-    <t>Moet nog besteld worden. In plaats van zonnepaneel/accu</t>
+    <t>Frame [m]</t>
+  </si>
+  <si>
+    <t>0?</t>
+  </si>
+  <si>
+    <t>Wielen</t>
+  </si>
+  <si>
+    <t>Niet nodig</t>
+  </si>
+  <si>
+    <t>Werkelijk uitgegeven</t>
+  </si>
+  <si>
+    <t>Problemen met verzending vanuit China; 2e bestelling geplaatst in NL</t>
+  </si>
+  <si>
+    <t>Losse DAC is ondertussen veel duurder geworden</t>
   </si>
 </sst>
 </file>
@@ -592,19 +592,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -624,16 +624,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -641,7 +641,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -654,14 +654,17 @@
         <v>100</v>
       </c>
       <c r="F2" s="17">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3">
-        <f>29.35+7.46</f>
-        <v>36.81</v>
+        <f>29.35+7.46+59.94</f>
+        <v>96.75</v>
       </c>
       <c r="H2" s="16">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30">
@@ -669,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -691,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -699,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -718,11 +721,11 @@
         <f>33.46+33.14</f>
         <v>66.599999999999994</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="17">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -730,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -743,16 +746,16 @@
         <v>40</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -760,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -772,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="17">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -811,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -860,14 +863,15 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>56</v>
+      <c r="F9" s="17">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <f>40+8.95/2</f>
+        <v>44.475000000000001</v>
       </c>
       <c r="H9" s="17">
         <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -875,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -956,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -984,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -999,14 +1003,12 @@
       <c r="F14" s="17">
         <v>2</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>61</v>
+      <c r="G14" s="3">
+        <f>18+8.95/2</f>
+        <v>22.475000000000001</v>
       </c>
       <c r="H14" s="17">
         <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1042,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1057,11 +1059,15 @@
       <c r="F16" s="17">
         <v>2</v>
       </c>
+      <c r="G16" s="3">
+        <f>3.48+14.52</f>
+        <v>18</v>
+      </c>
       <c r="H16" s="17">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1096,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1126,10 +1132,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
         <v>0.5</v>
@@ -1186,7 +1192,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="2">
         <f>SUM(G2:G20)</f>
-        <v>252.83</v>
+        <v>397.71999999999997</v>
       </c>
       <c r="H21" s="15"/>
     </row>
@@ -1195,10 +1201,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="12">
         <v>90</v>
@@ -1209,11 +1215,11 @@
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1221,10 +1227,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3">
         <v>10</v>
@@ -1234,10 +1240,10 @@
         <v>200</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1245,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="3">
         <v>60</v>
@@ -1264,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1272,10 +1278,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
       </c>
       <c r="D25" s="3">
         <v>76</v>
@@ -1284,13 +1290,19 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
+      <c r="F25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1">
       <c r="A26" s="7">
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -1327,10 +1339,13 @@
       <c r="F27" s="18"/>
       <c r="G27" s="6"/>
       <c r="H27" s="18"/>
+      <c r="I27" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="15.75" thickBot="1">
       <c r="B28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10">
@@ -1349,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2">
         <f>E21+E28</f>
@@ -1358,11 +1373,11 @@
       <c r="F29" s="15"/>
       <c r="G29" s="2">
         <f>G21+G28</f>
-        <v>252.83</v>
+        <v>397.71999999999997</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Onderdelen en kosten.xlsx
+++ b/Onderdelen en kosten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Aantal</t>
   </si>
@@ -142,9 +142,6 @@
     <t>40?</t>
   </si>
   <si>
-    <t>21?</t>
-  </si>
-  <si>
     <t>Reserve</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
   </si>
   <si>
     <t>Gekocht</t>
-  </si>
-  <si>
-    <t>30?</t>
   </si>
   <si>
     <t>5?</t>
@@ -592,7 +586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -624,13 +620,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>34</v>
@@ -664,7 +660,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30">
@@ -694,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -725,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -746,16 +742,16 @@
         <v>40</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -774,17 +770,17 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>41</v>
+      <c r="F6" s="17">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3">
+        <v>25.72</v>
       </c>
       <c r="H6" s="17">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -814,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -844,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -852,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -879,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1067,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1124,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1192,7 +1188,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="2">
         <f>SUM(G2:G20)</f>
-        <v>397.71999999999997</v>
+        <v>423.44</v>
       </c>
       <c r="H21" s="15"/>
     </row>
@@ -1215,11 +1211,11 @@
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1227,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -1240,10 +1236,10 @@
         <v>200</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1270,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1291,10 +1287,10 @@
         <v>76</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1">
@@ -1340,7 +1336,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="18"/>
       <c r="I27" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="15.75" thickBot="1">
@@ -1364,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2">
         <f>E21+E28</f>
@@ -1373,11 +1369,11 @@
       <c r="F29" s="15"/>
       <c r="G29" s="2">
         <f>G21+G28</f>
-        <v>397.71999999999997</v>
+        <v>423.44</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Onderdelen en kosten.xlsx
+++ b/Onderdelen en kosten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>Aantal</t>
   </si>
@@ -100,9 +100,6 @@
 + controller 12 V, 10 A?</t>
   </si>
   <si>
-    <t>Geschuimd PVC?, 10 mm [m2]</t>
-  </si>
-  <si>
     <t>LED-ring, 12 LEDs</t>
   </si>
   <si>
@@ -139,15 +136,9 @@
     <t>Zelfgemaakte printplaat toetsmodule</t>
   </si>
   <si>
-    <t>40?</t>
-  </si>
-  <si>
     <t>Reserve</t>
   </si>
   <si>
-    <t>Moet nog besteld worden</t>
-  </si>
-  <si>
     <t>Begroot 10 nov</t>
   </si>
   <si>
@@ -157,18 +148,9 @@
     <t>Voor de toekomst?</t>
   </si>
   <si>
-    <t>We zullen er 4 of 5 gebruiken, dus 1 of 2 reserve</t>
-  </si>
-  <si>
     <t>Gekocht</t>
   </si>
   <si>
-    <t>5?</t>
-  </si>
-  <si>
-    <t>4?</t>
-  </si>
-  <si>
     <t>Voeding 12 V, 100 W</t>
   </si>
   <si>
@@ -178,15 +160,9 @@
     <t>Geschuimd PVC i.p.v. Trespa</t>
   </si>
   <si>
-    <t>500?</t>
-  </si>
-  <si>
     <t>Frame [m]</t>
   </si>
   <si>
-    <t>0?</t>
-  </si>
-  <si>
     <t>Wielen</t>
   </si>
   <si>
@@ -196,10 +172,100 @@
     <t>Werkelijk uitgegeven</t>
   </si>
   <si>
-    <t>Problemen met verzending vanuit China; 2e bestelling geplaatst in NL</t>
-  </si>
-  <si>
     <t>Losse DAC is ondertussen veel duurder geworden</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Factuur</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Reichelt</t>
+  </si>
+  <si>
+    <t>In plaats van zonnepaneel/accu</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>PCB terminal blocks</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Zekeringen, zekeringhouders en bezuining voor voeding</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Lange pinnen 2.54 mm</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Bandkabel, kabelconnectors en PCB-connectors</t>
+  </si>
+  <si>
+    <t>Geschuimd PVC, 10/19 mm [m2]</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Prijs inclusief wisselkosten</t>
   </si>
 </sst>
 </file>
@@ -226,12 +292,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -266,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -290,6 +368,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,15 +676,16 @@
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,266 +701,258 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3">
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E20" si="0">A2*D2</f>
+        <f t="shared" ref="E2:E28" si="0">A2*D2</f>
         <v>100</v>
       </c>
-      <c r="F2" s="17">
-        <v>60</v>
-      </c>
-      <c r="G2" s="3">
-        <f>29.35+7.46+59.94</f>
-        <v>96.75</v>
-      </c>
-      <c r="H2" s="16">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="17">
+        <v>30</v>
+      </c>
+      <c r="H2" s="23">
+        <v>59.94</v>
+      </c>
+      <c r="I2" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="17">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7.27</v>
+      </c>
+      <c r="I3" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>45</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
         <v>14</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F4" s="17">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3">
-        <f>33.46+33.14</f>
-        <v>66.599999999999994</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="F5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="17">
+        <v>3</v>
+      </c>
+      <c r="H5" s="23">
+        <v>31.7</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>31.73</v>
+      </c>
+      <c r="I6" s="17">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D7" s="3">
         <v>40</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5</v>
+      </c>
+      <c r="H7" s="23">
+        <f>27.42+0.27</f>
+        <v>27.69</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="17">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
-        <v>25.72</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="H8" s="23">
+        <f>25.68+0.26</f>
+        <v>25.94</v>
+      </c>
+      <c r="I8" s="17">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D9" s="3">
         <v>35</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="3">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <f>40+8.95/2</f>
-        <v>44.475000000000001</v>
-      </c>
-      <c r="H9" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>30</v>
@@ -887,493 +961,699 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F10" s="17">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="17">
         <v>2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H11" s="23">
+        <f>40+8.95/2</f>
+        <v>44.475000000000001</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>34.479999999999997</v>
       </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
         <f>25/2</f>
         <v>12.5</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F11" s="17">
-        <v>3</v>
-      </c>
-      <c r="G11" s="14">
-        <f>19.46-9.73+19.52</f>
-        <v>29.25</v>
-      </c>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="17">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14">
+        <v>17.75</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
+        <f>19.46-9.73</f>
+        <v>9.73</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
         <v>25</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G12" s="3">
-        <f>29.12+2.68+8.63</f>
-        <v>40.43</v>
-      </c>
-      <c r="H12" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="F15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3">
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="3">
+        <v>25.71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="22">
+        <v>2.6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="22">
+        <v>28.13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>13.16</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22">
+        <f>(7.44+7.4/2)*1.21</f>
+        <v>13.4794</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="17">
         <v>2</v>
       </c>
-      <c r="G13" s="3">
-        <f>15.83+13.48</f>
-        <v>29.310000000000002</v>
-      </c>
-      <c r="H13" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F14" s="17">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H21" s="23">
         <f>18+8.95/2</f>
         <v>22.475000000000001</v>
       </c>
-      <c r="H14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3">
         <f>2.5/10/25*30</f>
         <v>0.3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="17">
         <v>50</v>
       </c>
-      <c r="G15" s="3">
-        <v>6.56</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="H22" s="3">
+        <v>4.92</v>
+      </c>
+      <c r="I22" s="17">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
+    <row r="23" spans="1:10">
+      <c r="A23">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3">
         <v>2.5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F16" s="17">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <f>3.48+14.52</f>
-        <v>18</v>
-      </c>
-      <c r="H16" s="17">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>14.52</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="17">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
-        <v>3.81</v>
-      </c>
-      <c r="H17" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="H25" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
         <v>0.5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="17">
         <v>5</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H27" s="3">
         <v>5.58</v>
       </c>
-      <c r="H19" s="17">
+      <c r="I27" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="5" customFormat="1">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="28" spans="1:10" s="5" customFormat="1">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="6">
-        <f>0.1*SUM(E2:E19)</f>
+      <c r="D28" s="6">
+        <f>0.1*SUM(E2:E27)</f>
         <v>41.5</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1">
-      <c r="B21" s="1" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1">
+      <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <f>SUM(E2:E20)</f>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <f>SUM(E2:E28)</f>
         <v>456.5</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="2">
-        <f>SUM(G2:G20)</f>
-        <v>423.44</v>
-      </c>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" s="11" customFormat="1">
-      <c r="A22" s="11">
+      <c r="F29" s="2"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="2">
+        <f>SUM(H2:H28)</f>
+        <v>436.1694</v>
+      </c>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1">
+      <c r="A30" s="11">
         <v>2</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B30" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D30" s="12">
         <v>90</v>
       </c>
-      <c r="E22" s="12">
-        <f t="shared" ref="E22:E27" si="1">A22*D22</f>
+      <c r="E30" s="12">
+        <f t="shared" ref="E30:E35" si="1">A30*D30</f>
         <v>180</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
+      <c r="F30" s="12"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="12">
+        <v>650</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D31" s="3">
         <v>10</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D32" s="3">
         <v>60</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D33" s="3">
         <v>76</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1">
-      <c r="A26" s="7">
-        <v>1</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="11" customFormat="1">
+      <c r="A34" s="7">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D34" s="12">
         <v>50</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E34" s="12">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1">
-      <c r="A27" s="13">
-        <v>1</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1">
+      <c r="A35" s="13">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="6">
-        <f>0.1*SUM(E22:E26)</f>
+      <c r="D35" s="6">
+        <f>0.1*SUM(E30:E34)</f>
         <v>80.600000000000009</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E35" s="6">
         <f t="shared" si="1"/>
         <v>80.600000000000009</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B28" s="9" t="s">
+      <c r="F35" s="6"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10">
-        <f>SUM(E22:E27)</f>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10">
+        <f>SUM(E30:E35)</f>
         <v>886.6</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="10">
-        <f>SUM(G22:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B29" s="8" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="10">
+        <f>SUM(H30:H35)</f>
+        <v>650</v>
+      </c>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="15.75" thickTop="1">
+      <c r="B37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="2">
-        <f>E21+E28</f>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2">
+        <f>E29+E36</f>
         <v>1343.1</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="2">
-        <f>G21+G28</f>
-        <v>423.44</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="1" t="s">
-        <v>58</v>
+      <c r="F37" s="2"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="2">
+        <f>H29+H36</f>
+        <v>1086.1694</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Onderdelen en kosten.xlsx
+++ b/Onderdelen en kosten.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>Aantal</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>Prijs inclusief wisselkosten</t>
+  </si>
+  <si>
+    <t>allekabels.nl</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Plastic-spray</t>
   </si>
 </sst>
 </file>
@@ -665,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -731,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E28" si="0">A2*D2</f>
+        <f t="shared" ref="E2:E29" si="0">A2*D2</f>
         <v>100</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1168,491 +1177,511 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19">
-        <v>1</v>
-      </c>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="17">
+        <v>2</v>
+      </c>
+      <c r="H19" s="22">
+        <v>22.93</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3">
         <v>15</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
         <v>13.16</v>
       </c>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" t="s">
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22">
         <f>(7.44+7.4/2)*1.21</f>
         <v>13.4794</v>
       </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D22" s="3">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="17">
         <v>2</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H22" s="23">
         <f>18+8.95/2</f>
         <v>22.475000000000001</v>
       </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3">
         <f>2.5/10/25*30</f>
         <v>0.3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="17">
         <v>50</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>4.92</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I23" s="17">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
+    <row r="24" spans="1:10">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3">
         <v>2.5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="17">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
         <v>14.52</v>
       </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="B24" t="s">
+    <row r="25" spans="1:10">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
         <v>3.48</v>
       </c>
-      <c r="I24" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="17">
         <v>2</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>2.78</v>
       </c>
-      <c r="I25" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
+    <row r="28" spans="1:10">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
         <v>0.5</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>5</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>5.58</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="5" customFormat="1">
-      <c r="A28" s="5">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:10" s="5" customFormat="1">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="6">
-        <f>0.1*SUM(E2:E27)</f>
+      <c r="D29" s="6">
+        <f>0.1*SUM(E2:E28)</f>
         <v>41.5</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="18">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1">
-      <c r="B29" s="1" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1">
+      <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <f>SUM(E2:E28)</f>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <f>SUM(E2:E29)</f>
         <v>456.5</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="2">
-        <f>SUM(H2:H28)</f>
-        <v>436.1694</v>
-      </c>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" s="11" customFormat="1">
-      <c r="A30" s="11">
+      <c r="F30" s="2"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="2">
+        <f>SUM(H2:H29)</f>
+        <v>459.0994</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1">
+      <c r="A31" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <v>90</v>
       </c>
-      <c r="E30" s="12">
-        <f t="shared" ref="E30:E35" si="1">A30*D30</f>
+      <c r="E31" s="12">
+        <f t="shared" ref="E31:E36" si="1">A31*D31</f>
         <v>180</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="12">
+      <c r="F31" s="12"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="12">
         <v>650</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" t="s">
+      <c r="I31" s="19"/>
+      <c r="J31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
+    <row r="32" spans="1:10">
+      <c r="A32">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="3">
         <v>10</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
+    <row r="33" spans="1:10">
+      <c r="A33">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>60</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>76</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="11" customFormat="1">
-      <c r="A34" s="7">
-        <v>1</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <v>50</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:10" s="5" customFormat="1">
-      <c r="A35" s="13">
-        <v>1</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1">
+      <c r="A36" s="13">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="6">
-        <f>0.1*SUM(E30:E34)</f>
+      <c r="D36" s="6">
+        <f>0.1*SUM(E31:E35)</f>
         <v>80.600000000000009</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <f t="shared" si="1"/>
         <v>80.600000000000009</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="11" t="s">
+      <c r="F36" s="6"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B36" s="9" t="s">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10">
-        <f>SUM(E30:E35)</f>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10">
+        <f>SUM(E31:E36)</f>
         <v>886.6</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="10">
-        <f>SUM(H30:H35)</f>
+      <c r="F37" s="10"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="10">
+        <f>SUM(H31:H36)</f>
         <v>650</v>
       </c>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B37" s="8" t="s">
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="15.75" thickTop="1">
+      <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="2">
-        <f>E29+E36</f>
+      <c r="E38" s="2">
+        <f>E30+E37</f>
         <v>1343.1</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="2">
-        <f>H29+H36</f>
-        <v>1086.1694</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="1" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="2">
+        <f>H30+H37</f>
+        <v>1109.0994000000001</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="1" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Onderdelen en kosten.xlsx
+++ b/Onderdelen en kosten.xlsx
@@ -301,24 +301,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -353,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -370,16 +358,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,9 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -688,9 +676,9 @@
     <col min="4" max="4" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,13 +701,13 @@
       <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -746,13 +734,13 @@
       <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>30</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="20">
         <v>59.94</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>5</v>
       </c>
     </row>
@@ -766,13 +754,13 @@
       <c r="F3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="20">
         <v>7.27</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>5</v>
       </c>
     </row>
@@ -793,13 +781,13 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
         <v>0</v>
       </c>
       <c r="J4" t="s">
@@ -826,13 +814,13 @@
       <c r="F5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>3</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <v>31.7</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>0</v>
       </c>
     </row>
@@ -846,13 +834,13 @@
       <c r="F6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="20">
         <v>31.73</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>2</v>
       </c>
     </row>
@@ -876,14 +864,14 @@
       <c r="F7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>5</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="20">
         <f>27.42+0.27</f>
         <v>27.69</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>4</v>
       </c>
       <c r="J7" t="s">
@@ -909,14 +897,14 @@
       <c r="F8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>30</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="20">
         <f>25.68+0.26</f>
         <v>25.94</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>5</v>
       </c>
       <c r="J8" t="s">
@@ -940,13 +928,13 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
         <v>0</v>
       </c>
       <c r="J9" t="s">
@@ -970,13 +958,13 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
         <v>0</v>
       </c>
       <c r="J10" t="s">
@@ -1002,14 +990,14 @@
       <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>2</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="20">
         <f>40+8.95/2</f>
         <v>44.475000000000001</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>1</v>
       </c>
       <c r="J11" t="s">
@@ -1036,13 +1024,13 @@
       <c r="F12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="20">
         <v>34.479999999999997</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1067,13 +1055,13 @@
       <c r="F13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>2</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="22">
         <v>17.75</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1087,14 +1075,14 @@
       <c r="F14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22">
         <f>19.46-9.73</f>
         <v>9.73</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1106,7 @@
       <c r="F15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="20">
         <v>8.6300000000000008</v>
       </c>
       <c r="J15" t="s">
@@ -1135,7 +1123,7 @@
       <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="20">
         <v>25.71</v>
       </c>
       <c r="J16" t="s">
@@ -1152,7 +1140,7 @@
       <c r="F17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="20">
         <v>2.6</v>
       </c>
       <c r="J17" t="s">
@@ -1169,7 +1157,7 @@
       <c r="F18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <v>28.13</v>
       </c>
       <c r="J18" t="s">
@@ -1186,10 +1174,10 @@
       <c r="F19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>2</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>22.93</v>
       </c>
       <c r="J19" t="s">
@@ -1216,13 +1204,13 @@
       <c r="F20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20">
         <v>13.16</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1236,14 +1224,14 @@
       <c r="F21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="22">
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20">
         <f>(7.44+7.4/2)*1.21</f>
         <v>13.4794</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1267,14 +1255,14 @@
       <c r="F22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <v>2</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="20">
         <f>18+8.95/2</f>
         <v>22.475000000000001</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1299,13 +1287,13 @@
       <c r="F23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>50</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="20">
         <v>4.92</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="16">
         <v>25</v>
       </c>
     </row>
@@ -1329,13 +1317,13 @@
       <c r="F24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20">
         <v>14.52</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="16">
         <v>0</v>
       </c>
       <c r="J24" t="s">
@@ -1352,13 +1340,13 @@
       <c r="F25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="20">
         <v>3.48</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1382,13 +1370,13 @@
       <c r="F26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="16">
         <v>2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="20">
         <v>2.78</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1409,13 +1397,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -1442,13 +1430,13 @@
       <c r="F28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="16">
         <v>5</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="20">
         <v>5.58</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="16">
         <v>2</v>
       </c>
     </row>
@@ -1471,13 +1459,13 @@
         <v>41.5</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18"/>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1">
       <c r="B30" s="1" t="s">
@@ -1489,12 +1477,12 @@
         <v>456.5</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="2">
+      <c r="G30" s="14"/>
+      <c r="H30" s="21">
         <f>SUM(H2:H29)</f>
         <v>459.0994</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1">
       <c r="A31" s="11">
@@ -1514,11 +1502,11 @@
         <v>180</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="12">
+      <c r="G31" s="18"/>
+      <c r="H31" s="24">
         <v>650</v>
       </c>
-      <c r="I31" s="19"/>
+      <c r="I31" s="18"/>
       <c r="J31" t="s">
         <v>46</v>
       </c>
@@ -1540,7 +1528,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="20">
         <v>0</v>
       </c>
       <c r="J32" t="s">
@@ -1564,10 +1552,10 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="20">
         <v>0</v>
       </c>
       <c r="J33" t="s">
@@ -1591,10 +1579,10 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1616,9 +1604,9 @@
         <v>50</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="19"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1">
       <c r="A36" s="13">
@@ -1639,9 +1627,9 @@
         <v>80.600000000000009</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="18"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="11" t="s">
         <v>48</v>
       </c>
@@ -1656,12 +1644,12 @@
         <v>886.6</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="10">
+      <c r="G37" s="19"/>
+      <c r="H37" s="25">
         <f>SUM(H31:H36)</f>
         <v>650</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="15.75" thickTop="1">
       <c r="B38" s="8" t="s">
@@ -1675,12 +1663,12 @@
         <v>1343.1</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="2">
+      <c r="G38" s="14"/>
+      <c r="H38" s="21">
         <f>H30+H37</f>
         <v>1109.0994000000001</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="1" t="s">
         <v>50</v>
       </c>
